--- a/biology/Microbiologie/Litostomatea/Litostomatea.xlsx
+++ b/biology/Microbiologie/Litostomatea/Litostomatea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Litostomatea sont une classe de ciliés du sous-embranchement des Intramacronucleata.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les Litostomatea, les cils corporels proviennent de structures du cortex cellulaire appelées « monokinétides », qui sont constituées d'un seul cil et de ses structures associées, telles que les corps basaux et les fibres microtubulaires. Ceux-ci ont une disposition ultrastructurale caractéristique du groupe.
 La « bouche » cellulaire (cytostome) est apicale ou subapicale. Chez les trichotomes, il se trouve dans une dépression, ou vestibule, contenant des cils somatiques modifiés. Dans un autre ordre, les Entodiniomorphida (Reichenow, in Doflein &amp; Reichenow, 1929), les cils sont disposés en touffes ou en bandes, et peuvent être regroupés pour former des syncilia, ressemblant aux membranelles et aux cirres des spirotrichs (avec lesquels ils étaient à l'origine classés). Cependant, aucun vrai cil composé n'apparaît.
@@ -544,9 +558,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (5 mars 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (5 mars 2024) :
 sous-classe des Haptoria Corliss, 1974
 Cyclotrichiida
 Haptorida
@@ -554,17 +570,17 @@
 sous-classe des Trichostomatia Bütschli, 1889
 Entodiniomorphida
 Vestibuliferida
-Selon GBIF       (31 décembre 2022)[2] :
+Selon GBIF       (31 décembre 2022) :
 Dileptida
 Tracheliida
-Selon l'IRMNG  (31 décembre 2022)[3] :
+Selon l'IRMNG  (31 décembre 2022) :
 Cyclotrichida
 Entodiniomorphida
 Haptorida
 Pleurostomatida
 Trichostomatida
 Vestibuliferida
-Selon The Taxonomicon  (31 décembre 2022)[4] :
+Selon The Taxonomicon  (31 décembre 2022) :
 sous-classe des Haptoria Corliss, 1974
 genre Baznosanuia Tucolesco, 1962
 genre Celerita Tucolesco, 1962
@@ -605,10 +621,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Litostomatea Small &amp; Lynn, 1981[5].
-Pour structurer l'embranchement des Ciliophora, Eugene B. Small (d) (1931-2019) et Denis Heward Lynn (d) (1947-) créent en 1981 une nouvelle classification[6] basée principalement sur le « concept du conservatisme d'agencement des structures fibrillaires corticales »[note 1],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Litostomatea Small &amp; Lynn, 1981.
+Pour structurer l'embranchement des Ciliophora, Eugene B. Small (d) (1931-2019) et Denis Heward Lynn (d) (1947-) créent en 1981 une nouvelle classification basée principalement sur le « concept du conservatisme d'agencement des structures fibrillaires corticales »[note 1],.
 Cavalier-Smith introduit, pour les Litostomatea, le sous-domaine des Bikonta Cavalier-Smith, 1993 et le super-embranchement des Alveolata Cavalier-Smith, 1991.
 </t>
         </is>
@@ -638,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Eugene B. Small et Denis H. Lynn, « A new macrosystem for the phylum Ciliophora Doflein, 1901 », BioSystems, Elsevier, vol. 14, nos 3-4,‎ 1er janvier 1981, p. 387-401 (ISSN 0303-2647 et 1872-8324, PMID 7337814, DOI 10.1016/0303-2647(81)90045-9, lire en ligne)</t>
         </is>
